--- a/testFile/userCase/userCase.xlsx
+++ b/testFile/userCase/userCase.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12000" windowHeight="5865"/>
+    <workbookView windowWidth="12000" windowHeight="5865" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="testSendCode" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="testLogin" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>caseNo</t>
   </si>
@@ -24,7 +24,10 @@
     <t>case_name</t>
   </si>
   <si>
-    <t>mobile</t>
+    <t>header</t>
+  </si>
+  <si>
+    <t>params</t>
   </si>
   <si>
     <t>address</t>
@@ -76,6 +79,67 @@
   </si>
   <si>
     <t>手机号为空</t>
+  </si>
+  <si>
+    <t>正确的手机号,正确的验证码</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json"}</t>
+  </si>
+  <si>
+    <t>{
+ "mobile": "13127996352",
+ "code": "",
+ "cid": "",
+ "did": "",
+ "url": ""
+}</t>
+  </si>
+  <si>
+    <t>/api/v1/cfuser/login/mobile</t>
+  </si>
+  <si>
+    <t>{
+        "phoneNumber": "13052395885",
+        "nickName": null,
+        "sex": 2,
+        "headUrl": null,
+        "userName": null,
+        "birthDate": null
+    }</t>
+  </si>
+  <si>
+    <t>正确的手机号,错误的验证码</t>
+  </si>
+  <si>
+    <t>{
+ "mobile": "13127996352",
+ "code": "9624",
+ "cid": "",
+ "did": "",
+ "url": ""
+}</t>
+  </si>
+  <si>
+    <t>验证码不正确</t>
+  </si>
+  <si>
+    <t>错误的手机号,正确的验证码</t>
+  </si>
+  <si>
+    <t>{
+ "mobile": "13127996352",
+ "code": "9625",
+ "cid": "",
+ "did": "",
+ "url": ""
+}</t>
+  </si>
+  <si>
+    <t>caseNo_4</t>
+  </si>
+  <si>
+    <t>错误的手机号,错误的验证码</t>
   </si>
 </sst>
 </file>
@@ -89,7 +153,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,13 +198,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -233,23 +290,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,6 +327,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -282,12 +351,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -312,6 +393,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -324,133 +411,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,148 +638,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -740,13 +797,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1096,27 +1153,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="43.75" customWidth="1"/>
-    <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="2" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="43.75" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="26" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1138,71 +1195,77 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+    <row r="2" s="2" customFormat="1" ht="26" customHeight="1" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="6">
         <v>13052395885</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+    <row r="3" s="2" customFormat="1" ht="26" customHeight="1" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="6">
         <v>13052395885</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+    <row r="4" s="2" customFormat="1" ht="26" customHeight="1" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3">
         <v>1000003</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="4">
         <v>1000003</v>
       </c>
     </row>
@@ -1216,14 +1279,153 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="39.375" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="30.375" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="111" customHeight="1" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="115" customHeight="1" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="118" customHeight="1" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1000003</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="118" customHeight="1" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1000003</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
